--- a/BooksToRead.xlsx
+++ b/BooksToRead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22579\Desktop\Trifles\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651B6AB0-C82F-473E-9077-A08CFB621E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DB5C8-A027-4B39-A3CB-5C74D3FCF073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="2520" windowWidth="14235" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="2355" windowWidth="14235" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Eye of Hurricane : An Autobiography</t>
   </si>
   <si>
     <t>Richard Bellman</t>
+  </si>
+  <si>
+    <t>Dependency_Injection_In_.NET</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,6 +371,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BooksToRead.xlsx
+++ b/BooksToRead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22579\Desktop\Trifles\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DB5C8-A027-4B39-A3CB-5C74D3FCF073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90BA6B-8702-4744-80FD-93452D7AAF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="2355" windowWidth="14235" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19410" yWindow="2295" windowWidth="14235" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Eye of Hurricane : An Autobiography</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Dependency_Injection_In_.NET</t>
+  </si>
+  <si>
+    <t>Working Effectively With Legacy Code</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,6 +379,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
